--- a/Results/Overall.xlsx
+++ b/Results/Overall.xlsx
@@ -3996,7 +3996,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="290" zoomScaleNormal="290" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
